--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Itgb8</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>1.440985666666667</v>
+      </c>
+      <c r="H2">
+        <v>4.322957000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.1098365531732288</v>
+      </c>
+      <c r="J2">
+        <v>0.1230162332390494</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>6.201571333333333</v>
-      </c>
-      <c r="H2">
-        <v>18.604714</v>
-      </c>
-      <c r="I2">
-        <v>0.05221490529364391</v>
-      </c>
-      <c r="J2">
-        <v>0.07406232529850043</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.178057</v>
+        <v>2.509764</v>
       </c>
       <c r="N2">
-        <v>0.534171</v>
+        <v>7.529292</v>
       </c>
       <c r="O2">
-        <v>0.01072706596418309</v>
+        <v>0.4449267202378082</v>
       </c>
       <c r="P2">
-        <v>0.01486309420510698</v>
+        <v>0.545938718598321</v>
       </c>
       <c r="Q2">
-        <v>1.104233186899333</v>
+        <v>3.616533950716001</v>
       </c>
       <c r="R2">
-        <v>9.938098682093997</v>
+        <v>32.548805556444</v>
       </c>
       <c r="S2">
-        <v>0.0005601127333984909</v>
+        <v>0.04886921736559031</v>
       </c>
       <c r="T2">
-        <v>0.00110079531796089</v>
+        <v>0.06715932474131879</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H3">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I3">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J3">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.509764</v>
+        <v>3.131084</v>
       </c>
       <c r="N3">
-        <v>7.529292</v>
+        <v>6.262168</v>
       </c>
       <c r="O3">
-        <v>0.1512010422647355</v>
+        <v>0.5550732797621918</v>
       </c>
       <c r="P3">
-        <v>0.2094995353430986</v>
+        <v>0.454061281401679</v>
       </c>
       <c r="Q3">
-        <v>15.564480475832</v>
+        <v>4.511847165129335</v>
       </c>
       <c r="R3">
-        <v>140.080324282488</v>
+        <v>27.071082990776</v>
       </c>
       <c r="S3">
-        <v>0.007894948102153413</v>
+        <v>0.06096733580763848</v>
       </c>
       <c r="T3">
-        <v>0.01551602273646526</v>
+        <v>0.05585690849773058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +658,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.201571333333333</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H4">
-        <v>18.604714</v>
+        <v>22.384924</v>
       </c>
       <c r="I4">
-        <v>0.05221490529364391</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J4">
-        <v>0.07406232529850043</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8571405</v>
+        <v>2.509764</v>
       </c>
       <c r="N4">
-        <v>27.714281</v>
+        <v>7.529292</v>
       </c>
       <c r="O4">
-        <v>0.8348251414909441</v>
+        <v>0.4449267202378082</v>
       </c>
       <c r="P4">
-        <v>0.7711387726585802</v>
+        <v>0.545938718598321</v>
       </c>
       <c r="Q4">
-        <v>85.93604528677233</v>
+        <v>18.726958799312</v>
       </c>
       <c r="R4">
-        <v>515.6162717206339</v>
+        <v>168.542629193808</v>
       </c>
       <c r="S4">
-        <v>0.04359031569970252</v>
+        <v>0.2530521854990043</v>
       </c>
       <c r="T4">
-        <v>0.05711233063092614</v>
+        <v>0.3477611228207314</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,51 +720,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.201571333333333</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H5">
-        <v>18.604714</v>
+        <v>22.384924</v>
       </c>
       <c r="I5">
-        <v>0.05221490529364391</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J5">
-        <v>0.07406232529850043</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05389233333333333</v>
+        <v>3.131084</v>
       </c>
       <c r="N5">
-        <v>0.161677</v>
+        <v>6.262168</v>
       </c>
       <c r="O5">
-        <v>0.003246750280137314</v>
+        <v>0.5550732797621918</v>
       </c>
       <c r="P5">
-        <v>0.004498597793214309</v>
+        <v>0.454061281401679</v>
       </c>
       <c r="Q5">
-        <v>0.3342171494864444</v>
+        <v>23.36302579253866</v>
       </c>
       <c r="R5">
-        <v>3.007954345377999</v>
+        <v>140.178154755232</v>
       </c>
       <c r="S5">
-        <v>0.0001695287583894817</v>
+        <v>0.3156980692929552</v>
       </c>
       <c r="T5">
-        <v>0.0003331766131481543</v>
+        <v>0.2892355051407295</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4.2167365</v>
+      </c>
+      <c r="H6">
+        <v>8.433472999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.3214131920348118</v>
+      </c>
+      <c r="J6">
+        <v>0.2399871387994896</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>7.461641333333333</v>
-      </c>
-      <c r="H6">
-        <v>22.384924</v>
-      </c>
-      <c r="I6">
-        <v>0.06282422221945559</v>
-      </c>
-      <c r="J6">
-        <v>0.0891107233935555</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.178057</v>
+        <v>2.509764</v>
       </c>
       <c r="N6">
-        <v>0.534171</v>
+        <v>7.529292</v>
       </c>
       <c r="O6">
-        <v>0.01072706596418309</v>
+        <v>0.4449267202378082</v>
       </c>
       <c r="P6">
-        <v>0.01486309420510698</v>
+        <v>0.545938718598321</v>
       </c>
       <c r="Q6">
-        <v>1.328597470889333</v>
+        <v>10.583013465186</v>
       </c>
       <c r="R6">
-        <v>11.957377238004</v>
+        <v>63.498080791116</v>
       </c>
       <c r="S6">
-        <v>0.000673919575896597</v>
+        <v>0.1430053173732136</v>
       </c>
       <c r="T6">
-        <v>0.001324461076483645</v>
+        <v>0.1310182710362708</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,427 +835,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.461641333333333</v>
+        <v>4.2167365</v>
       </c>
       <c r="H7">
-        <v>22.384924</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I7">
-        <v>0.06282422221945559</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J7">
-        <v>0.0891107233935555</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.509764</v>
+        <v>3.131084</v>
       </c>
       <c r="N7">
-        <v>7.529292</v>
+        <v>6.262168</v>
       </c>
       <c r="O7">
-        <v>0.1512010422647355</v>
+        <v>0.5550732797621918</v>
       </c>
       <c r="P7">
-        <v>0.2094995353430986</v>
+        <v>0.454061281401679</v>
       </c>
       <c r="Q7">
-        <v>18.726958799312</v>
+        <v>13.202956187366</v>
       </c>
       <c r="R7">
-        <v>168.542629193808</v>
+        <v>52.81182474946399</v>
       </c>
       <c r="S7">
-        <v>0.00949908787905304</v>
+        <v>0.1784078746615982</v>
       </c>
       <c r="T7">
-        <v>0.01866865514503727</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>7.461641333333333</v>
-      </c>
-      <c r="H8">
-        <v>22.384924</v>
-      </c>
-      <c r="I8">
-        <v>0.06282422221945559</v>
-      </c>
-      <c r="J8">
-        <v>0.0891107233935555</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>13.8571405</v>
-      </c>
-      <c r="N8">
-        <v>27.714281</v>
-      </c>
-      <c r="O8">
-        <v>0.8348251414909441</v>
-      </c>
-      <c r="P8">
-        <v>0.7711387726585802</v>
-      </c>
-      <c r="Q8">
-        <v>103.3970123166073</v>
-      </c>
-      <c r="R8">
-        <v>620.382073899644</v>
-      </c>
-      <c r="S8">
-        <v>0.05244724020341553</v>
-      </c>
-      <c r="T8">
-        <v>0.06871673386842461</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>7.461641333333333</v>
-      </c>
-      <c r="H9">
-        <v>22.384924</v>
-      </c>
-      <c r="I9">
-        <v>0.06282422221945559</v>
-      </c>
-      <c r="J9">
-        <v>0.0891107233935555</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.05389233333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.161677</v>
-      </c>
-      <c r="O9">
-        <v>0.003246750280137314</v>
-      </c>
-      <c r="P9">
-        <v>0.004498597793214309</v>
-      </c>
-      <c r="Q9">
-        <v>0.4021252619497777</v>
-      </c>
-      <c r="R9">
-        <v>3.619127357547999</v>
-      </c>
-      <c r="S9">
-        <v>0.0002039745610904263</v>
-      </c>
-      <c r="T9">
-        <v>0.0004008733036099795</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>105.106922</v>
-      </c>
-      <c r="H10">
-        <v>210.213844</v>
-      </c>
-      <c r="I10">
-        <v>0.8849608724869005</v>
-      </c>
-      <c r="J10">
-        <v>0.836826951307944</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.178057</v>
-      </c>
-      <c r="N10">
-        <v>0.534171</v>
-      </c>
-      <c r="O10">
-        <v>0.01072706596418309</v>
-      </c>
-      <c r="P10">
-        <v>0.01486309420510698</v>
-      </c>
-      <c r="Q10">
-        <v>18.715023210554</v>
-      </c>
-      <c r="R10">
-        <v>112.290139263324</v>
-      </c>
-      <c r="S10">
-        <v>0.009493033654887999</v>
-      </c>
-      <c r="T10">
-        <v>0.01243783781066244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>105.106922</v>
-      </c>
-      <c r="H11">
-        <v>210.213844</v>
-      </c>
-      <c r="I11">
-        <v>0.8849608724869005</v>
-      </c>
-      <c r="J11">
-        <v>0.836826951307944</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.509764</v>
-      </c>
-      <c r="N11">
-        <v>7.529292</v>
-      </c>
-      <c r="O11">
-        <v>0.1512010422647355</v>
-      </c>
-      <c r="P11">
-        <v>0.2094995353430986</v>
-      </c>
-      <c r="Q11">
-        <v>263.793568986408</v>
-      </c>
-      <c r="R11">
-        <v>1582.761413918448</v>
-      </c>
-      <c r="S11">
-        <v>0.133807006283529</v>
-      </c>
-      <c r="T11">
-        <v>0.1753148574615961</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>105.106922</v>
-      </c>
-      <c r="H12">
-        <v>210.213844</v>
-      </c>
-      <c r="I12">
-        <v>0.8849608724869005</v>
-      </c>
-      <c r="J12">
-        <v>0.836826951307944</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>13.8571405</v>
-      </c>
-      <c r="N12">
-        <v>27.714281</v>
-      </c>
-      <c r="O12">
-        <v>0.8348251414909441</v>
-      </c>
-      <c r="P12">
-        <v>0.7711387726585802</v>
-      </c>
-      <c r="Q12">
-        <v>1456.481385676541</v>
-      </c>
-      <c r="R12">
-        <v>5825.925542706163</v>
-      </c>
-      <c r="S12">
-        <v>0.7387875855878261</v>
-      </c>
-      <c r="T12">
-        <v>0.6453097081592294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>105.106922</v>
-      </c>
-      <c r="H13">
-        <v>210.213844</v>
-      </c>
-      <c r="I13">
-        <v>0.8849608724869005</v>
-      </c>
-      <c r="J13">
-        <v>0.836826951307944</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.05389233333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.161677</v>
-      </c>
-      <c r="O13">
-        <v>0.003246750280137314</v>
-      </c>
-      <c r="P13">
-        <v>0.004498597793214309</v>
-      </c>
-      <c r="Q13">
-        <v>5.664457276064666</v>
-      </c>
-      <c r="R13">
-        <v>33.98674365638799</v>
-      </c>
-      <c r="S13">
-        <v>0.002873246960657406</v>
-      </c>
-      <c r="T13">
-        <v>0.003764547876456175</v>
+        <v>0.1089688677632188</v>
       </c>
     </row>
   </sheetData>
